--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.041321.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.041321.xlsx_with_dialog_acts.xlsx
@@ -1235,12 +1235,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1387,12 +1387,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1463,12 +1463,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1653,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1691,12 +1691,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2645,12 +2645,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2683,12 +2683,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3443,12 +3443,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3601,12 +3601,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3677,12 +3677,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4103,12 +4103,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4447,12 +4447,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4751,12 +4751,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4827,12 +4827,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5739,12 +5739,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5929,12 +5929,12 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5967,12 +5967,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6347,12 +6347,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6423,12 +6423,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6537,12 +6537,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7069,12 +7069,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7263,12 +7263,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7529,12 +7529,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7567,12 +7567,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7605,12 +7605,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7643,12 +7643,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7757,12 +7757,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7795,12 +7795,12 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7833,12 +7833,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7871,12 +7871,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8061,12 +8061,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8213,12 +8213,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8365,12 +8365,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9161,12 +9161,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9199,12 +9199,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9313,12 +9313,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10115,12 +10115,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10913,12 +10913,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11411,12 +11411,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11449,12 +11449,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11487,12 +11487,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11601,12 +11601,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11715,12 +11715,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11829,12 +11829,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11867,12 +11867,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12057,12 +12057,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12095,12 +12095,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12133,12 +12133,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12171,12 +12171,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12209,12 +12209,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12285,12 +12285,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12323,12 +12323,12 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12589,12 +12589,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12665,12 +12665,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12897,12 +12897,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12973,12 +12973,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13509,12 +13509,12 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13547,12 +13547,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13623,12 +13623,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14235,12 +14235,12 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14349,12 +14349,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14425,12 +14425,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14767,12 +14767,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14843,12 +14843,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14923,12 +14923,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15227,12 +15227,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15991,12 +15991,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16067,12 +16067,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16143,12 +16143,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16219,12 +16219,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16675,12 +16675,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -16983,12 +16983,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17021,12 +17021,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17173,12 +17173,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17211,12 +17211,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
